--- a/0Resultados.xlsx
+++ b/0Resultados.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.5000000000495772</t>
+          <t>3.5000000005712515</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.000000000056664</t>
+          <t>4.000000000652865</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.980319380308524</t>
+          <t>2.9837057072542477</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5000000000967592</t>
+          <t>4.000000002510848</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.0000000007763274</t>
+          <t>4.000000002509883</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.000000000176939</t>
+          <t>4.000000001033906</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.999999998546997</t>
+          <t>4.0000000049327555</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.000000002207564</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.0000000007824905</t>
+          <t>4.0000000023952245</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.5000000000495772</t>
+          <t>3.5000000000444236</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.000000000056664</t>
+          <t>4.000000000050757</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.980319380308524</t>
+          <t>2.985444519102113</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.5000000000967592</t>
+          <t>4.000000000822847</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.0000000007763274</t>
+          <t>4.000000000836148</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.000000000176939</t>
+          <t>4.000000000187919</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.999999998546997</t>
+          <t>3.999999994597409</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.000000000795484</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.0000000007824905</t>
+          <t>4.000000000823164</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2005435486698977</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.99999999993509</t>
+          <t>3.200543548604988</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1635,12 +1635,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.7971505529212242</t>
+          <t>0.7632989551768489</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.797150553955131</t>
+          <t>4.763298956210755</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0836331887606798</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.083633191271521</t>
+          <t>4.000000002510841</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9215161695677097</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.921516171775274</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2320,12 +2320,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7791352190892404</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.5000000005712515</t>
+          <t>4.279135219660492</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.999999997490117</t>
+          <t>1.0000001474901201</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.4290195800622909</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.429019584995046</t>
+          <t>4.0000000049327555</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3097,12 +3097,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.1212079255675316</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.0000000023952245</t>
+          <t>5.121207927962756</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4933,12 +4933,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6072844676640871</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9854445191021073</t>
+          <t>3.5927289867661942</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.184588948012179</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.184588948835024</t>
+          <t>4.000000000822845</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5414,12 +5414,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.999999999218403</t>
+          <t>0.9999999991641022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000054551</t>
+          <t>5.0000000000002505</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9097720267104208</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.9097720275059045</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0831040645078258</t>
+          <t>1.0643283739891631</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.583104064552249</t>
+          <t>4.564328374033587</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6395,12 +6395,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.8998333276266652</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.89983332844951</t>
+          <t>4.000000000822845</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6432,12 +6432,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999991828759</t>
+          <t>1.000000149163856</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000019024</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9330915592182514</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.933091560013735</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0188527460148205</t>
+          <t>0.1107119729263947</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.518852746059244</t>
+          <t>3.6107119729708184</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -7450,12 +7450,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999991828759</t>
+          <t>0.9999999991640939</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000019024</t>
+          <t>5.000000000000242</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8843546654758905</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.884354666271374</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -7950,12 +7950,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7510102127840238</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.5000000000444236</t>
+          <t>4.251010212828447</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8283,12 +8283,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9172454030462323</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.000000000187919</t>
+          <t>4.917245403234151</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.08355817221301798</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.000000149163856</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.000000000836148</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -8690,12 +8690,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.917265079262898</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.917265080058382</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8968,12 +8968,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0777523927254298</t>
+          <t>0.9249952995775235</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.577752392769853</t>
+          <t>4.424995299621947</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -9449,12 +9449,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.7741554437889403</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.774155444611785</t>
+          <t>4.000000000822845</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -9486,12 +9486,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999991651123</t>
+          <t>0.9999999991641333</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.00000000000126</t>
+          <t>5.0000000000002816</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -9708,12 +9708,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9277731157946141</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.927773116590098</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -10023,12 +10023,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0418818399550571</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9854445191021073</t>
+          <t>3.0273263590571644</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10467,12 +10467,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9677416574833685</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.967741658306213</t>
+          <t>4.000000000822845</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -10504,12 +10504,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.000000149163852</t>
+          <t>0.9999999991641106</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.00000015</t>
+          <t>5.0000000000002585</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -10726,12 +10726,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9364117437745421</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.936411744570026</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -11004,12 +11004,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0179184425147025</t>
+          <t>1.0908201426877198</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.517918442559126</t>
+          <t>4.590820142732143</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -11041,12 +11041,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.16124881659511064</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9854445191021073</t>
+          <t>3.146693335697218</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -11522,12 +11522,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999991739941</t>
+          <t>1.000000149163856</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000010142</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11670,12 +11670,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.200000005402591</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.999999994597409</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -11744,12 +11744,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9408315035168311</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.940831504312315</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -12152,12 +12152,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -12876,12 +12876,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.052817231920258646</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9854445191021073</t>
+          <t>3.038261751022366</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -13320,12 +13320,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9845834886082006</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.984583489431046</t>
+          <t>4.000000000822845</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -13357,12 +13357,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.000000149163852</t>
+          <t>0.999999999164172</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.00000015</t>
+          <t>5.00000000000032</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9368341631037174</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000795484</t>
+          <t>4.936834163899201</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -13857,12 +13857,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0722890048089857</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.5000000000444236</t>
+          <t>4.57228900485341</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -14190,12 +14190,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.16968607222224727</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.000000000187919</t>
+          <t>4.169686072410166</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -14375,12 +14375,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.999999999218403</t>
+          <t>0.9999999991639739</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000054551</t>
+          <t>5.000000000000122</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -14523,12 +14523,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.5615693863623594</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.561569380959769</t>
+          <t>3.999999994597409</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -14634,12 +14634,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7963505625936904</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.000000000823164</t>
+          <t>4.796350563416854</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -16470,12 +16470,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6128206054970016</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9803193803085235</t>
+          <t>3.593139985805525</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -16914,12 +16914,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.196426899695002</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.196426900469114</t>
+          <t>4.000000000774112</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -16951,12 +16951,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992361666</t>
+          <t>1.0000001492236756</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000012494</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -17173,12 +17173,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.925305081892466</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.925305082566798</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -17784,12 +17784,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.9508104154250612</t>
+          <t>0.9164251616102876</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.9508104156020005</t>
+          <t>4.916425161787227</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -17932,12 +17932,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.8901086021418055</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.890108602915918</t>
+          <t>4.000000000774112</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -17969,12 +17969,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992236798</t>
+          <t>1.0000001492236756</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000000007</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -18191,12 +18191,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9508109442506862</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.950810944925018</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -18469,12 +18469,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0484083674791251</t>
+          <t>1.0283173226759104</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.548408367528703</t>
+          <t>4.528317322725488</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -18802,12 +18802,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.89840251838715</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.898402518564089</t>
+          <t>4.000000000176939</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -18950,12 +18950,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00333425076029858</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.003334251534411</t>
+          <t>4.000000000774112</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -18987,12 +18987,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992272848</t>
+          <t>0.9999999992239109</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000003612</t>
+          <t>5.000000000000238</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -19209,12 +19209,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8984025661971291</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.898402566871461</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -20005,12 +20005,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.02663115430317613</t>
+          <t>0.0013047071093318374</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.026631155079504</t>
+          <t>4.00130470788566</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -20505,12 +20505,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.098278629649795</t>
+          <t>0.9895493123494244</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.598278629699372</t>
+          <t>4.489549312399002</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -20986,12 +20986,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.8133596039827293</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.813359604756842</t>
+          <t>4.000000000774112</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -21023,12 +21023,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992361666</t>
+          <t>1.0000001492236748</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000012494</t>
+          <t>5.000000150000002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -21245,12 +21245,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9483076614662087</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.94830766214054</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -21560,12 +21560,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0028655760811489364</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9803193803085235</t>
+          <t>2.9831849563896724</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -22004,12 +22004,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9309828378416484</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.930982838615761</t>
+          <t>4.000000000774112</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -22041,12 +22041,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992361666</t>
+          <t>1.0000001492236756</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000012494</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -22263,12 +22263,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9526222612390622</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.952622261913394</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -22541,12 +22541,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.9082366866951299</t>
+          <t>1.102742829380146</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.408236686744707</t>
+          <t>4.602742829429723</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -22578,12 +22578,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.03397357789422515</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9803193803085235</t>
+          <t>3.0142929582027485</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -23059,12 +23059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992716937</t>
+          <t>0.9999999992239499</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000048021</t>
+          <t>5.000000000000277</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -23207,12 +23207,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.2000000014530032</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.999999998546997</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -23281,12 +23281,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9527587128906969</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.952758713565029</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -23596,12 +23596,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.726144389451103</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.99999999993509</t>
+          <t>3.726144389386193</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -23892,12 +23892,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8877789716174406</t>
+          <t>0.7636466618031128</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.887778972651347</t>
+          <t>4.763646662837019</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -24040,12 +24040,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.173819225550955</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.173819228061796</t>
+          <t>4.000000002510841</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -24077,12 +24077,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.999999997490117</t>
+          <t>1.0000001474901201</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -24299,12 +24299,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8969560160313597</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.896956018238924</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -24614,12 +24614,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.02633995765550878</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.9803193803085235</t>
+          <t>3.0066593379640323</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -25058,12 +25058,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9587154088452153</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.9587154096193276</t>
+          <t>4.000000000774112</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -25095,12 +25095,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992361666</t>
+          <t>0.999999999223946</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000012494</t>
+          <t>5.000000000000274</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -25317,12 +25317,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9540442321907463</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.954044232865078</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -25595,12 +25595,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.23025785048942288</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.5000000000495772</t>
+          <t>3.730257850539</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -25928,12 +25928,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6459787150435841</t>
+          <t>0.9409879253190194</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.645978715220523</t>
+          <t>4.940987925495959</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -26113,12 +26113,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9999999992272848</t>
+          <t>0.9999999992239468</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.000000000003612</t>
+          <t>5.0000000000002744</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -26335,12 +26335,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9410104425811259</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000000674332</t>
+          <t>4.941010443255458</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -28208,12 +28208,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.13338335028199436</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.99999999993509</t>
+          <t>3.1333833502170845</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -28504,12 +28504,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.7982556630703783</t>
+          <t>0.7637683068369278</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.798255664104285</t>
+          <t>4.763768307870834</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -28652,12 +28652,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0025044151492934</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.002504417660135</t>
+          <t>4.000000002510841</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -28689,12 +28689,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.000000147490117</t>
+          <t>1.0000001474901201</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.00000015</t>
+          <t>5.0000001500000035</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -28911,12 +28911,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9184417834613807</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.918441785668945</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -29189,12 +29189,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0223164207391835</t>
+          <t>0.7802467514961974</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.522316421310435</t>
+          <t>4.280246752067449</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -29522,12 +29522,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.8012910519950517</t>
+          <t>0.7669761538195622</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.801291053028958</t>
+          <t>4.766976154853468</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -29670,12 +29670,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.012613397978196106</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.0126134004890375</t>
+          <t>4.000000002510841</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -29929,12 +29929,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2641887473455915</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.264188749553155</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -30207,12 +30207,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6987788294605793</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.5000000005712515</t>
+          <t>4.198778830031831</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -30540,12 +30540,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7633925502853318</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.000000001033906</t>
+          <t>4.763392551319238</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -30688,7 +30688,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.2703089838627345</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -30725,12 +30725,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.999999997490117</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.000000002509883</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -30947,12 +30947,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8962357763788651</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.896235778586429</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -31225,12 +31225,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0553084764585536</t>
+          <t>0.869385989124775</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.555308477029805</t>
+          <t>4.369385989696027</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -31558,12 +31558,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.7974672368531353</t>
+          <t>0.763612554653579</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.797467237887042</t>
+          <t>4.7636125556874855</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -31706,12 +31706,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.6941978273462617</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.694197829857103</t>
+          <t>4.000000002510841</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -31965,12 +31965,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.905319687543094</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.905319689750658</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -32243,12 +32243,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.072371533012443</t>
+          <t>1.0132473277446055</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.572371533583695</t>
+          <t>4.513247328315857</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -32280,12 +32280,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.11684322151183406</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.99999999993509</t>
+          <t>3.116843221446924</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -32724,12 +32724,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9776002788982859</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.977600281409127</t>
+          <t>4.000000002510841</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -32983,12 +32983,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9223728640869053</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.922372866294469</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -33261,12 +33261,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.9659438853373079</t>
+          <t>1.0689512458221269</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.465943885908559</t>
+          <t>4.568951246393379</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -33298,12 +33298,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1521667623262639</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.99999999993509</t>
+          <t>3.152166762261354</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -33594,12 +33594,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.7964179184445564</t>
+          <t>0.7625426059355227</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.796417919478463</t>
+          <t>4.762542606969429</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -33779,12 +33779,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.000000147490117</t>
+          <t>0.999999997490117</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.00000015</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -33927,12 +33927,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.1999999950672446</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.0000000049327555</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -34001,12 +34001,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.9189419042130957</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.000000002207564</t>
+          <t>4.91894190642066</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -34038,12 +34038,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.025069457591434915</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.0000000023952245</t>
+          <t>4.02506945998666</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
